--- a/docs/02. 요구사항정의서/02. 요구사항정의서.xlsx
+++ b/docs/02. 요구사항정의서/02. 요구사항정의서.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qkdlf\Project\movie\docs\02. 요구사항정의서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qkdlf\Project\movieWebProject\docs\02. 요구사항정의서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2D7852-81C3-4834-9D50-9B9F0A8B9B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13203B3A-6CDB-44AF-9C77-22662D734A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22044" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="95">
   <si>
     <t>시스템명</t>
   </si>
@@ -63,215 +63,321 @@
     <t>로그인 &amp; 로그아웃</t>
   </si>
   <si>
-    <t>로그인 버튼을 클릭 시, 로그인 화면단으로 이동</t>
-  </si>
-  <si>
     <t>기능</t>
   </si>
   <si>
     <t>O</t>
   </si>
   <si>
-    <t>로그인 화면단에서 로그인을 할때 아이디와 비밀번호의 값을 받는다.  틀리면 경고 표시를 해준다.</t>
-  </si>
-  <si>
     <t>RM-A001-002</t>
   </si>
   <si>
-    <t>로그아웃 버튼 클릭시 로그아웃이 된다.</t>
-  </si>
-  <si>
     <t>회원가입</t>
   </si>
   <si>
-    <t>로그인 화면단에서 회원가입 버튼을 클릭 시, 개인정보 입력란을 출력해준다.</t>
-  </si>
-  <si>
-    <t>아이디 기재 시 아이디가 이미 존재해 중복이 된다면 중복이 된 아이디라는 경고 표시를 해준다.</t>
-  </si>
-  <si>
     <t>회원탈퇴</t>
   </si>
   <si>
-    <t>회원탈퇴 버튼 클릭 시 아이디와 비밀번호를 입력받고 일치 시, "정말로 탈퇴하시겠습니까?"라고 confirm창을 띄우고 확인을 누르면 탈퇴된다.</t>
-  </si>
-  <si>
-    <t>무비차트</t>
-  </si>
-  <si>
-    <t>영화 리스트에 슬라이드 JS 플러그인을 적용하여 좌우 방향으로 넘겨볼 수 있도록 한다.</t>
-  </si>
-  <si>
-    <t>슬라이드 적용 시 참고사항 : 자동재생, 무한슬라이드는 사용하지 않는다(자동재생 설정할거면 재생/멈춤 버튼을 제공해야 웹 접근성에 위배되지 않음). 즉 이전/다음 버튼만 제공하여 사용의 직관성과 편리성을 극대화한다.</t>
-  </si>
-  <si>
     <t>예매</t>
   </si>
   <si>
     <t>영화 예매</t>
   </si>
   <si>
-    <t>회원 예매는 로그인시 이용 가능</t>
-  </si>
-  <si>
-    <t>선택한 지역에 대한 영화관을 조회, 선택할 수 있다.</t>
-  </si>
-  <si>
-    <t>영화관 선택시 상영중인 영화를 조회, 선택할 수 있다.</t>
-  </si>
-  <si>
-    <t>영화 선택시 상영시간을 조회, 선택할 수 있다.</t>
-  </si>
-  <si>
-    <t>지역, 영화관, 상영시간, 상영인원 선택 완료되면 원하는 자리를 선택</t>
-  </si>
-  <si>
-    <t>뒤로가기 버튼을 통해 이전 선택창으로 돌아갈 수 있다.</t>
-  </si>
-  <si>
-    <t>회원은 예매가 완료되면 영화 예매번호(16자리의 랜덤한 수) 출력</t>
+    <t>조회</t>
+  </si>
+  <si>
+    <t>movie</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RM-A001-003</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RM-A001-006</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영관</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌석</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화관</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영일정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약 좌석</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영일정좌석</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RM-A001-015</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RM-A001-019</t>
+  </si>
+  <si>
+    <t>RM-A001-020</t>
+  </si>
+  <si>
+    <t>RM-A001-021</t>
+  </si>
+  <si>
+    <t>RM-A001-022</t>
+  </si>
+  <si>
+    <t>RM-A001-023</t>
+  </si>
+  <si>
+    <t>RM-A001-024</t>
+  </si>
+  <si>
+    <t>웹 사이트 상단의 로그인 버튼 클릭시 로그인 페이지로 이동</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 페이지에서 아이디와 비밀번호를 입력받음</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 버튼을 눌러서 로그인 수행</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹 사이트 상단의 회원가입 버튼 클릭시 회원가입 페이지로 이동</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록 버튼을 눌러서 회원가입 수행</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RM-A001-004</t>
+  </si>
+  <si>
+    <t>RM-A001-005</t>
+  </si>
+  <si>
+    <t>회원탈퇴 버튼 클릭시 아이디와 비밀번호를 입력받고 확인창에서 확인을 클릭하고 회원탈퇴를 수행</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원예매 메뉴버튼 클릭시 예매 페이지로 이동</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택한 지역, 지점, 영화, 일자에 따른 상영 일정 조회</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영 일정 버튼을 클릭하여 좌석 선택 페이지로 이동</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌석선택 페이지에서 청소년/성인/노약자 인원을 선택한후 원하는 좌석을 선택</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제하기 버튼 클릭시 결제 방법 페이지로 이동</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RM-A001-007</t>
+  </si>
+  <si>
+    <t>RM-A001-008</t>
+  </si>
+  <si>
+    <t>RM-A001-009</t>
+  </si>
+  <si>
+    <t>RM-A001-010</t>
+  </si>
+  <si>
+    <t>RM-A001-011</t>
+  </si>
+  <si>
+    <t>고객이 선택한 결제 방법을 선택한후 결제하기 버튼을 클릭하여 결제를 진행</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제가 완료되면 결제 완료 페이지로 이동</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품결제</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>결제</t>
-  </si>
-  <si>
-    <t>상품 결제</t>
-  </si>
-  <si>
-    <t>결제가 완료되면 예매번호, 상영영화관, 상영 영화, 상영 시간 출력</t>
-  </si>
-  <si>
-    <t>카드 결제</t>
-  </si>
-  <si>
-    <t>결제할 카드사, 카드번호, 추가 카드 정보 입력</t>
-  </si>
-  <si>
-    <t>카드번호 입력시 숫자 외의 다른 입력이 확인되면 "카드번호가 잘못되었습니다. 다시 입력해주세요." 경고창 출력</t>
-  </si>
-  <si>
-    <t>조회</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RM-A001-012</t>
+  </si>
+  <si>
+    <t>RM-A001-013</t>
   </si>
   <si>
     <t>회원 예매 조회</t>
-  </si>
-  <si>
-    <t>로그인 후 예매 조회 가능</t>
-  </si>
-  <si>
-    <t>로그인 후 예매 취소 가능</t>
-  </si>
-  <si>
-    <t>고객이 선택한 영화 예매 금액을 결제창에 출력 후 결제</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제방법은 카드 결제로 진행</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>입력사항을  미기재 할 경우, "필수 정보입니다." 라는 문구를 띄운다.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>개인정보입력(아이디/비밀번호/이름/생년월일/이메일/핸드폰번호/주소 등)의 입력값을 받으면, 중복이 된 데이터가 없는지 확인 후 가입처리를 완료한다.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>movie</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호입력 시 입력오류를 방지하기 위해 비밀번호 재확인란을 통하여 비밀번호와 비밀번호 재확인값이 일치한지 확인 후
-불일치 할 경우, “비밀번호가 일치하지 않습니다” 문구를 출력. 일치 할 경우, “확인되었습니다” 문구를 출력한다.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>RM-A001-003</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>RM-A001-004</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>RM-A001-005</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>RM-A001-006</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>RM-A001-007</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>RM-A001-008</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>RM-A001-009</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>RM-A001-010</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>RM-A001-011</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>RM-A001-012</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>RM-A001-013</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인한 상태에서 마이 페이지로 이동하여 예매 조회</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인한 상태에서  마이 페이지로 이동하여 취소할 예매를 선택하고 취소</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>RM-A001-014</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>영화</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>상영관</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>좌석</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>영화관</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>상영</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>상영일정</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>예약</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>예약 좌석</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>상영일정좌석</t>
+  </si>
+  <si>
+    <t>RM-A001-015</t>
+  </si>
+  <si>
+    <t>페이지</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>각각의 영화관에 대한 정보를 확인합니다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화관을 관리(추가/수정/제거)할 수 있습니다</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 영화관이 참조할 수 있는 영화를 추가/수정/제거 할 수 있습니다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록된 영화를 검색하여 확인할 수 있습니다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤 한 영화관의 상영관을 관리(추가/수정/제거)할 수 있습니다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤 한 영화관의 상영관의 정보를 검색 및 확인할 수 있습니다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤 한 영화관의 각각에 해당된 상영관에 배치된 좌석들을 관리 및 배치할 수 있습니다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤 한 영화관에서 상영하는 영화들을 관리할 수 있습니다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤 한 영화관의 한 상영하는 영화에 대해서 다수의 상영일정들을 관리할 수 있습니다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자는 한 영화관 지점에서 예약한 예약 정보들을 조회 및 관리할 수 있습니다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자는 한 상영일정에 대해서 좌석 정보들의 상태를 조회 및 관리할 수 있습니다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자는 회원 정보들을 검색 및 관리할 수 있습니다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>영화관을 검색할 수 있습니다.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RM-A001-016</t>
+  </si>
+  <si>
+    <t>RM-A001-017</t>
+  </si>
+  <si>
+    <t>RM-A001-018</t>
+  </si>
+  <si>
+    <t>RM-A001-025</t>
+  </si>
+  <si>
+    <t>RM-A001-026</t>
+  </si>
+  <si>
+    <t>RM-A001-027</t>
+  </si>
+  <si>
+    <t>RM-A001-028</t>
+  </si>
+  <si>
+    <t>개인정보(이름, 전화번호, 이메일, 아이디, 비밀번호, 성별, 생년월일, 주소)를 입력</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리자는 한 영화관 지점에서 예약한 좌석들을 조회 및 관리할 수 있습니다.</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -326,27 +432,28 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="돋움"/>
+      <name val="맑은"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
+      <name val="맑은"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -359,14 +466,8 @@
         <bgColor rgb="FFBFBFBF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -440,15 +541,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -500,56 +592,112 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -560,39 +708,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -813,562 +928,641 @@
   </sheetPr>
   <dimension ref="A1:M1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="17.109375" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" style="23" customWidth="1"/>
     <col min="3" max="3" width="22.33203125" customWidth="1"/>
     <col min="4" max="4" width="129" customWidth="1"/>
     <col min="5" max="6" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A1" s="4"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="10"/>
+      <c r="A1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="10"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="19"/>
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="18">
-        <v>44735</v>
-      </c>
-      <c r="G2" s="10"/>
+      <c r="F2" s="21">
+        <v>44762</v>
+      </c>
+      <c r="G2" s="19"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A5" s="15"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A6" s="15"/>
+      <c r="B6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A7" s="15"/>
+      <c r="B7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A8" s="15"/>
+      <c r="B8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A9" s="15"/>
+      <c r="B9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A10" s="16"/>
+      <c r="B10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A11" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A12" s="25"/>
+      <c r="B12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="28"/>
+      <c r="D12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A13" s="25"/>
+      <c r="B13" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A14" s="25"/>
+      <c r="B14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="28"/>
+      <c r="D14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A15" s="26"/>
+      <c r="B15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="29"/>
+      <c r="D15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A16" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A17" s="16"/>
+      <c r="B17" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A18" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A19" s="22"/>
+      <c r="B19" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A20" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M10" s="2"/>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="15" t="s">
+      <c r="F20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A21" s="13"/>
+      <c r="B21" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A22" s="13"/>
+      <c r="B22" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A23" s="13"/>
+      <c r="B23" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="19" t="s">
+      <c r="D23" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A24" s="13"/>
+      <c r="B24" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A25" s="13"/>
+      <c r="B25" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A15" s="24" t="s">
+      <c r="D25" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A26" s="13"/>
+      <c r="B26" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A27" s="13"/>
+      <c r="B27" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="12" t="s">
+      <c r="D27" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A28" s="13"/>
+      <c r="B28" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A16" s="25"/>
-      <c r="B16" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="13" t="s">
+      <c r="D28" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A29" s="13"/>
+      <c r="B29" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A17" s="25"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="13" t="s">
+      <c r="D29" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A30" s="13"/>
+      <c r="B30" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A18" s="25"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="13" t="s">
+      <c r="D30" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A31" s="13"/>
+      <c r="B31" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A19" s="25"/>
-      <c r="B19" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="13" t="s">
+      <c r="D31" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A32" s="13"/>
+      <c r="B32" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A20" s="25"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="13" t="s">
+      <c r="D32" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A33" s="13"/>
+      <c r="B33" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A21" s="26"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A22" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A23" s="6"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A24" s="6"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A25" s="6"/>
-      <c r="B25" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A26" s="6"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A27" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A28" s="6"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A29" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="34" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" customHeight="1">
-      <c r="C30" s="34" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" customHeight="1">
-      <c r="C31" s="33" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" customHeight="1">
-      <c r="C32" s="35" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C33" s="35" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C34" s="35" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C35" s="35" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C36" s="35" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C37" s="35" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="3:3" ht="15.75" customHeight="1"/>
-    <row r="39" spans="3:3" ht="15.75" customHeight="1"/>
-    <row r="40" spans="3:3" ht="15.75" customHeight="1"/>
-    <row r="41" spans="3:3" ht="15.75" customHeight="1"/>
-    <row r="42" spans="3:3" ht="15.75" customHeight="1"/>
-    <row r="43" spans="3:3" ht="15.75" customHeight="1"/>
-    <row r="44" spans="3:3" ht="15.75" customHeight="1"/>
-    <row r="45" spans="3:3" ht="15.75" customHeight="1"/>
-    <row r="46" spans="3:3" ht="15.75" customHeight="1"/>
-    <row r="47" spans="3:3" ht="15.75" customHeight="1"/>
-    <row r="48" spans="3:3" ht="15.75" customHeight="1"/>
+      <c r="D33" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="9"/>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="35" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="36" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="37" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="38" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="39" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="40" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="41" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="42" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="43" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="44" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="45" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="46" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="47" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="48" spans="1:7" ht="15.75" customHeight="1"/>
     <row r="49" ht="15.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1"/>
@@ -1385,24 +1579,22 @@
     <row r="62" ht="15.75" customHeight="1"/>
     <row r="63" ht="15.75" customHeight="1"/>
     <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" spans="3:3" ht="15.75" customHeight="1"/>
-    <row r="66" spans="3:3" ht="15.75" customHeight="1"/>
-    <row r="67" spans="3:3" ht="15.75" customHeight="1"/>
-    <row r="68" spans="3:3" ht="15.75" customHeight="1"/>
-    <row r="69" spans="3:3" ht="15.75" customHeight="1"/>
-    <row r="70" spans="3:3" ht="15.75" customHeight="1"/>
-    <row r="71" spans="3:3" ht="15.75" customHeight="1"/>
-    <row r="72" spans="3:3" ht="15.75" customHeight="1"/>
-    <row r="73" spans="3:3" ht="15.75" customHeight="1"/>
-    <row r="74" spans="3:3" ht="15.75" customHeight="1"/>
-    <row r="75" spans="3:3" ht="15.75" customHeight="1"/>
-    <row r="76" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C76" s="3"/>
-    </row>
-    <row r="77" spans="3:3" ht="15.75" customHeight="1"/>
-    <row r="78" spans="3:3" ht="15.75" customHeight="1"/>
-    <row r="79" spans="3:3" ht="15.75" customHeight="1"/>
-    <row r="80" spans="3:3" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
     <row r="81" ht="15.75" customHeight="1"/>
     <row r="82" ht="15.75" customHeight="1"/>
     <row r="83" ht="15.75" customHeight="1"/>
@@ -2325,30 +2517,25 @@
     <row r="1000" ht="15.75" customHeight="1"/>
     <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A15:A21"/>
-    <mergeCell ref="C15:C21"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A4:A14"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="B25:B26"/>
+  <mergeCells count="18">
+    <mergeCell ref="A4:A10"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A20:A33"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C23:C24"/>
     <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="B27:B28"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="A18:A19"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
